--- a/outputs-r202/g__UBA629_train.xlsx
+++ b/outputs-r202/g__UBA629_train.xlsx
@@ -6,10 +6,10 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="s__UBA629 sp900316625-b-p" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="s__UBA629 sp900316665-b-p" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="s__UBA629 sp900317915-b-p" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="s__UBA629 sp005465875-b-p" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="s__UBA629 sp005465875-b-p" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="s__UBA629 sp900316625-b-p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="s__UBA629 sp900316665-b-p" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="s__UBA629 sp900317915-b-p" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -504,6 +504,926 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp900316625</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp900316665</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp900317915</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_005465875.1_19.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771085.1_13.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771085.1_6.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771135.1_4.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771145.1_13.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771145.1_17.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771145.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771165.1_1.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771115.1_0.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771115.1_8.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771165.1_16.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_011082265.1_1.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_005465875.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_005465875.1_5.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_005465875.1_7.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771075.1_5.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771145.1_9.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_011082265.1_9.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771075.1_0.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771085.1_17.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771115.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771135.1_10.fasta</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771135.1_6.fasta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771135.1_8.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4130389357349405</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1956536880883532</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1956536880883531</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1956536880883531</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4130389357349405</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_005465875.1_19.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771085.1_13.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771085.1_6.fasta</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771135.1_4.fasta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771145.1_13.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771145.1_17.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771145.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009771165.1_1.fasta</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>s__UBA629 sp005465875</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -540,12 +1460,12 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -567,10 +1487,8 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -596,10 +1514,8 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -625,10 +1541,8 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -654,10 +1568,8 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -683,10 +1595,8 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -712,10 +1622,8 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -741,10 +1649,8 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -770,10 +1676,8 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -799,10 +1703,8 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -828,10 +1730,8 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F11" t="n">
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -857,10 +1757,8 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F12" t="n">
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -886,10 +1784,8 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F13" t="n">
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -915,10 +1811,8 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -944,10 +1838,8 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F15" t="n">
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -973,10 +1865,8 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1002,10 +1892,8 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1031,10 +1919,8 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F18" t="n">
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1060,10 +1946,8 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1089,10 +1973,8 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F20" t="n">
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1118,10 +2000,8 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1147,10 +2027,8 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F22" t="n">
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1176,10 +2054,8 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F23" t="n">
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1205,10 +2081,8 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F24" t="n">
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1234,10 +2108,8 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F25" t="n">
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1263,10 +2135,8 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F26" t="n">
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1292,10 +2162,8 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F27" t="n">
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1321,10 +2189,8 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F28" t="n">
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1350,10 +2216,8 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F29" t="n">
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1379,10 +2243,8 @@
       <c r="E30" t="n">
         <v>0</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F30" t="n">
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1408,10 +2270,8 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F31" t="n">
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1437,10 +2297,8 @@
       <c r="E32" t="n">
         <v>0</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
+      <c r="F32" t="n">
+        <v>1</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1453,7 +2311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1495,12 +2353,12 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -1522,10 +2380,8 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1551,10 +2407,8 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1580,10 +2434,8 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1609,10 +2461,8 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1638,10 +2488,8 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1667,10 +2515,8 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1696,10 +2542,8 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1725,10 +2569,8 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1754,10 +2596,8 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1783,10 +2623,8 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F11" t="n">
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1812,10 +2650,8 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F12" t="n">
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1841,10 +2677,8 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F13" t="n">
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1870,10 +2704,8 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1899,10 +2731,8 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F15" t="n">
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1928,14 +2758,12 @@
       <c r="E16" t="n">
         <v>0.3410747446215847</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>0.3410747446215847</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>s__UBA629 sp900317915</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
         </is>
       </c>
     </row>
@@ -1957,10 +2785,8 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1986,10 +2812,8 @@
       <c r="E18" t="n">
         <v>2.226771403334956e-13</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F18" t="n">
+        <v>0.5055263629594319</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2015,10 +2839,8 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2044,10 +2866,8 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F20" t="n">
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2073,10 +2893,8 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2102,10 +2920,8 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F22" t="n">
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2131,10 +2947,8 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F23" t="n">
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2160,10 +2974,8 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F24" t="n">
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2189,10 +3001,8 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F25" t="n">
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2218,10 +3028,8 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F26" t="n">
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2247,10 +3055,8 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F27" t="n">
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2276,10 +3082,8 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F28" t="n">
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2305,10 +3109,8 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
+      <c r="F29" t="n">
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2321,7 +3123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2363,12 +3165,12 @@
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -2390,10 +3192,8 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2419,10 +3219,8 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2448,10 +3246,8 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2477,10 +3273,8 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2506,10 +3300,8 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2535,10 +3327,8 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2564,10 +3354,8 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2593,10 +3381,8 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2622,10 +3408,8 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2651,10 +3435,8 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F11" t="n">
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2680,10 +3462,8 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F12" t="n">
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2709,10 +3489,8 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F13" t="n">
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2738,10 +3516,8 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2767,10 +3543,8 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F15" t="n">
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2796,10 +3570,8 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2825,10 +3597,8 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2854,10 +3624,8 @@
       <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F18" t="n">
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2883,10 +3651,8 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2912,10 +3678,8 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F20" t="n">
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2941,10 +3705,8 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2970,10 +3732,8 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F22" t="n">
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2999,10 +3759,8 @@
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F23" t="n">
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3028,10 +3786,8 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F24" t="n">
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3057,10 +3813,8 @@
       <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F25" t="n">
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -3086,10 +3840,8 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F26" t="n">
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3115,10 +3867,8 @@
       <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F27" t="n">
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -3144,10 +3894,8 @@
       <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F28" t="n">
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -3173,10 +3921,8 @@
       <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
+      <c r="F29" t="n">
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3202,934 +3948,12 @@
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>s__UBA629 sp900317915</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>Row</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316625</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900316665</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp900317915</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_005465875.1_19.fasta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771085.1_13.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771085.1_6.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771135.1_4.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771145.1_13.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771145.1_17.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771145.1_18.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771165.1_1.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771115.1_0.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771115.1_8.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771165.1_16.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_011082265.1_1.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_005465875.1_18.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_005465875.1_5.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_005465875.1_7.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771075.1_5.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771145.1_9.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_011082265.1_9.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771075.1_0.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771085.1_17.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771115.1_18.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771135.1_10.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771135.1_6.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771135.1_8.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.4130389357349405</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1956536880883532</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.1956536880883531</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1956536880883531</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.4130389357349405</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_005465875.1_19.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771085.1_13.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771085.1_6.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771135.1_4.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771145.1_13.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771145.1_17.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771145.1_18.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_009771165.1_1.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>s__UBA629 sp005465875</t>
         </is>
       </c>
     </row>
